--- a/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
+++ b/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECBD4CB4-E560-49B6-B9FA-BF652177A746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9353DA-8757-4BA5-BF6D-960D1540A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB796D0A-1929-4DDD-A038-93396BD327EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BB796D0A-1929-4DDD-A038-93396BD327EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Alt1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$A$1:$C$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$C$26</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -38,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -142,56 +166,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>392691</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>42923</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Businessman using notepad">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79929622-EC7E-4164-DCF2-7FF70804BECD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3415291" y="0"/>
-          <a:ext cx="2698232" cy="8007350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -261,55 +235,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>459740</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>55031</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="A close-up of several logos&#10;&#10;Description automatically generated">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4774AF02-5505-4F1B-8D25-296292CCB2C0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4914900" y="2933700"/>
-          <a:ext cx="1005840" cy="620181"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -634,16 +559,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0027365-88D3-4720-A7D1-268188D0D3D1}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -1003,4 +929,446 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35A0C36-C234-477E-A992-B91BF6985A89}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45353</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="G2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B3">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.77986111111111112</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45353</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B4">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45355</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45355</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="G5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B6">
+        <v>333</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45356</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="G6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B7">
+        <v>444</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45356</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B8">
+        <v>444</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B9">
+        <v>444</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" cm="1">
+        <f t="array" ref="I9:K14">_xlfn.LET(_xlpm.z,_xlfn._xlws.SORT(A2:C26,2),_xlpm.g,_xlfn.GROUPBY(_xlfn.CHOOSECOLS(_xlpm.z,1,3),INDEX(_xlpm.z,,2),_xleta.ARRAYTOTEXT,,0),_xlpm.d,_xlfn.TAKE(_xlpm.g,,1),_xlfn.CHOOSEROWS(_xlpm.g,_xlfn.TOROW(_xlfn.XMATCH(_xlfn.UNIQUE(_xlpm.d),_xlpm.d,,{1,-1}))))</f>
+        <v>45353</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="K9" t="str">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B10">
+        <v>111</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I10" s="1">
+        <v>45353</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="K10" t="str">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B11">
+        <v>555</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="I11" s="1">
+        <v>45355</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
+        <v>222, 444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B12">
+        <v>555</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>45355</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="K12" t="str">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B13">
+        <v>222</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45356</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="K13" t="str">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B14">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45356</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="K14" t="str">
+        <v>111, 555</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B15">
+        <v>555</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.60972222222222228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B16">
+        <v>444</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B17">
+        <v>333</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.63958333333333328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B18">
+        <v>222</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B19">
+        <v>333</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.20972222222222223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B20">
+        <v>333</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.9444444444444445E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B21">
+        <v>111</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B22">
+        <v>111</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.64861111111111114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B23">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.35347222222222224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B24">
+        <v>111</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B25">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B26">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.76597222222222228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
+++ b/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9353DA-8757-4BA5-BF6D-960D1540A6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCDD31-44A1-49A1-912C-EDD9A014060B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BB796D0A-1929-4DDD-A038-93396BD327EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt2" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$A$1:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt2'!$A$1:$C$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$C$26</definedName>
+    <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -90,7 +93,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +109,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +144,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -136,8 +166,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -148,8 +180,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Intro_Hd" xfId="2" xr:uid="{2FF42A6A-726B-4781-867E-B4D05E1166BB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{000FD4E3-1D12-4C0F-A499-7FD3602102C9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,6 +589,33 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="869" row="8">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C29D830E-4CA3-4CA3-A548-A21FAD7B7739}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0027365-88D3-4720-A7D1-268188D0D3D1}">
   <dimension ref="A1:L26"/>
@@ -936,7 +997,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:K8"/>
+      <selection activeCell="F12" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,7 +1186,12 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" cm="1">
-        <f t="array" ref="I9:K14">_xlfn.LET(_xlpm.z,_xlfn._xlws.SORT(A2:C26,2),_xlpm.g,_xlfn.GROUPBY(_xlfn.CHOOSECOLS(_xlpm.z,1,3),INDEX(_xlpm.z,,2),_xleta.ARRAYTOTEXT,,0),_xlpm.d,_xlfn.TAKE(_xlpm.g,,1),_xlfn.CHOOSEROWS(_xlpm.g,_xlfn.TOROW(_xlfn.XMATCH(_xlfn.UNIQUE(_xlpm.d),_xlpm.d,,{1,-1}))))</f>
+        <f t="array" ref="I9:K14">_xlfn.LET(
+    _xlpm.z, _xlfn._xlws.SORT(A2:C26, 2),
+    _xlpm.g, _xlfn.GROUPBY(_xlfn.CHOOSECOLS(_xlpm.z, 1, 3), INDEX(_xlpm.z, , 2), _xleta.ARRAYTOTEXT, , 0),
+    _xlpm.d, _xlfn.TAKE(_xlpm.g, , 1),
+    _xlfn.CHOOSEROWS(_xlpm.g, _xlfn.TOROW(_xlfn.XMATCH(_xlfn.UNIQUE(_xlpm.d), _xlpm.d, , {1,-1})))
+)</f>
         <v>45353</v>
       </c>
       <c r="J9" s="3">
@@ -1255,6 +1321,464 @@
       </c>
       <c r="C16" s="3">
         <v>0.18958333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B17">
+        <v>333</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.63958333333333328</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B18">
+        <v>222</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B19">
+        <v>333</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.20972222222222223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B20">
+        <v>333</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.9444444444444445E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B21">
+        <v>111</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B22">
+        <v>111</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.64861111111111114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B23">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.35347222222222224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B24">
+        <v>111</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B25">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B26">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.76597222222222228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F37A5-0EE7-458E-B4BC-B7722F86273D}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45353</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="G2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B3">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.77986111111111112</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45353</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B4">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45355</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45355</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="G5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B6">
+        <v>333</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45356</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="G6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B7">
+        <v>444</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45356</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B8">
+        <v>444</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.9194444444444444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B9">
+        <v>444</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B10">
+        <v>111</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="F10" s="6" t="str" cm="1">
+        <f t="array" ref="F10:H16">_xlfn.LET(
+    _xlpm.a, _xlfn.PIVOTBY(A2:A26, B2:B26, C2:C26, _xlfn.VSTACK(_xleta.MIN, _xleta.MAX), , 0),
+    _xlpm.b, _xlfn.TAKE(_xlpm.a, , -1),
+    _xlfn.VSTACK(
+        {"Date","Emp ID","Time"},
+        _xlfn.DROP(
+            _xlfn.HSTACK(
+                _xlfn.TAKE(_xlpm.a, , 1),
+                _xlpm.b,
+                _xlfn.BYROW(
+                    _xlfn.DROP(IF(_xlpm.a = _xlpm.b, _xlfn.TAKE(_xlpm.a, 1), ""), , -1),
+                    _xlfn.LAMBDA(_xlpm.x, _xlfn.TEXTJOIN(", ", , _xlpm.x))
+                )
+            ),
+            1
+        )
+    )
+)</f>
+        <v>Date</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <v>Emp ID</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <v>Time</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B11">
+        <v>555</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="F11" s="1">
+        <v>45353</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="H11" t="str">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B12">
+        <v>555</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45353</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H12" t="str">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B13">
+        <v>222</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45355</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <v>222, 444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B14">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="F14" s="1">
+        <v>45355</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="H14" t="str">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B15">
+        <v>555</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.60972222222222228</v>
+      </c>
+      <c r="F15" s="1">
+        <v>45356</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="H15" t="str">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B16">
+        <v>444</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="F16" s="1">
+        <v>45356</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="H16" t="str">
+        <v>111, 555</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">

--- a/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
+++ b/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BCDD31-44A1-49A1-912C-EDD9A014060B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93ABF80-F683-4B54-AD18-CB3CF7F42472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BB796D0A-1929-4DDD-A038-93396BD327EF}"/>
   </bookViews>
@@ -16,11 +16,18 @@
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="Alt1" sheetId="2" r:id="rId2"/>
     <sheet name="Alt2" sheetId="4" r:id="rId3"/>
+    <sheet name="EDA" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_A">EDA!$G$11:$N$17</definedName>
+    <definedName name="_B">EDA!$P$11:$P$17</definedName>
+    <definedName name="_d">EDA!$A$2:$A$26</definedName>
+    <definedName name="_eid">EDA!$B$2:$B$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Alt1'!$A$1:$C$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Alt2'!$A$1:$C$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">EDA!$A$1:$C$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Original!$A$1:$C$26</definedName>
+    <definedName name="_t">EDA!$C$2:$C$26</definedName>
     <definedName name="HD_Date">_xlfn.LET(_xlpm.dt, TODAY(),      _xlpm.y,  YEAR(_xlpm.dt),      _xlpm.m,  MONTH(_xlpm.dt),      _xlpm.d,  DAY(_xlpm.dt),      TEXT(DATE(_xlpm.y,_xlpm.m,_xlpm.d),"dd-mmm-yyyy")     )</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -66,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="6">
   <si>
     <t>Date</t>
   </si>
@@ -90,8 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -125,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,12 +149,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,9 +171,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -179,6 +181,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Intro_Hd" xfId="2" xr:uid="{2FF42A6A-726B-4781-867E-B4D05E1166BB}"/>
@@ -269,6 +275,55 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>368304</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="A white background with black text&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1811222B-EADB-DB86-7B05-450FFEB80E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11407140" y="99060"/>
+          <a:ext cx="4582164" cy="2438740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -591,7 +646,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="869" row="8">
+  <wetp:taskpane dockstate="right" visibility="0" width="251" row="8">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -994,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35A0C36-C234-477E-A992-B91BF6985A89}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1009,9 +1064,10 @@
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45355</v>
       </c>
@@ -1055,7 +1111,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45355</v>
       </c>
@@ -1075,7 +1131,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45355</v>
       </c>
@@ -1094,8 +1150,42 @@
       <c r="G4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" cm="1">
+        <f t="array" ref="M4:O28">_xlfn._xlws.SORT(A2:C26,2)</f>
+        <v>45353</v>
+      </c>
+      <c r="N4">
+        <v>111</v>
+      </c>
+      <c r="O4">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="Q4" cm="1">
+        <f t="array" ref="Q4:S26">_xlfn.GROUPBY(_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(M4), 1, 3), INDEX(_xlfn.ANCHORARRAY(M4), , 2), _xleta.ARRAYTOTEXT, , 0)</f>
+        <v>45353</v>
+      </c>
+      <c r="R4">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="S4" t="str">
+        <v>444</v>
+      </c>
+      <c r="T4" cm="1">
+        <f t="array" ref="T4:T26">_xlfn.TAKE(_xlfn.ANCHORARRAY(Q4),,1)</f>
+        <v>45353</v>
+      </c>
+      <c r="V4" s="1" cm="1">
+        <f t="array" ref="V4:X9">_xlfn.CHOOSEROWS(_xlfn.ANCHORARRAY(Q4), _xlfn.TOROW(_xlfn.XMATCH(_xlfn.UNIQUE(_xlfn.ANCHORARRAY(T4)),_xlfn.ANCHORARRAY( T4), , {1,-1})))</f>
+        <v>45353</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="X4" t="str">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45353</v>
       </c>
@@ -1114,8 +1204,38 @@
       <c r="G5">
         <v>222</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>45353</v>
+      </c>
+      <c r="N5">
+        <v>111</v>
+      </c>
+      <c r="O5">
+        <v>0.95</v>
+      </c>
+      <c r="Q5">
+        <v>45353</v>
+      </c>
+      <c r="R5">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="S5" t="str">
+        <v>111</v>
+      </c>
+      <c r="T5">
+        <v>45353</v>
+      </c>
+      <c r="V5" s="1">
+        <v>45353</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="X5" t="str">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45356</v>
       </c>
@@ -1134,8 +1254,38 @@
       <c r="G6">
         <v>333</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>45353</v>
+      </c>
+      <c r="N6">
+        <v>111</v>
+      </c>
+      <c r="O6">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="Q6">
+        <v>45353</v>
+      </c>
+      <c r="R6">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="S6" t="str">
+        <v>444</v>
+      </c>
+      <c r="T6">
+        <v>45353</v>
+      </c>
+      <c r="V6" s="1">
+        <v>45355</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" t="str">
+        <v>222, 444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45353</v>
       </c>
@@ -1154,8 +1304,38 @@
       <c r="G7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>45356</v>
+      </c>
+      <c r="N7">
+        <v>111</v>
+      </c>
+      <c r="O7">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="Q7">
+        <v>45353</v>
+      </c>
+      <c r="R7">
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="S7" t="str">
+        <v>444</v>
+      </c>
+      <c r="T7">
+        <v>45353</v>
+      </c>
+      <c r="V7" s="1">
+        <v>45355</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="X7" t="str">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45353</v>
       </c>
@@ -1174,8 +1354,38 @@
       <c r="K8" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>45356</v>
+      </c>
+      <c r="N8">
+        <v>111</v>
+      </c>
+      <c r="O8">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="Q8">
+        <v>45353</v>
+      </c>
+      <c r="R8">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="S8" t="str">
+        <v>111</v>
+      </c>
+      <c r="T8">
+        <v>45353</v>
+      </c>
+      <c r="V8" s="1">
+        <v>45356</v>
+      </c>
+      <c r="W8" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="X8" t="str">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45355</v>
       </c>
@@ -1200,8 +1410,38 @@
       <c r="K9" t="str">
         <v>444</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>45356</v>
+      </c>
+      <c r="N9">
+        <v>111</v>
+      </c>
+      <c r="O9">
+        <v>0.35347222222222224</v>
+      </c>
+      <c r="Q9">
+        <v>45353</v>
+      </c>
+      <c r="R9">
+        <v>0.95</v>
+      </c>
+      <c r="S9" t="str">
+        <v>111</v>
+      </c>
+      <c r="T9">
+        <v>45353</v>
+      </c>
+      <c r="V9" s="1">
+        <v>45356</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="X9" t="str">
+        <v>111, 555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45353</v>
       </c>
@@ -1220,8 +1460,29 @@
       <c r="K10" t="str">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>45356</v>
+      </c>
+      <c r="N10">
+        <v>111</v>
+      </c>
+      <c r="O10">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="Q10">
+        <v>45355</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="str">
+        <v>222, 444</v>
+      </c>
+      <c r="T10">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45356</v>
       </c>
@@ -1240,8 +1501,29 @@
       <c r="K11" t="str">
         <v>222, 444</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>45356</v>
+      </c>
+      <c r="N11">
+        <v>111</v>
+      </c>
+      <c r="O11">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="Q11">
+        <v>45355</v>
+      </c>
+      <c r="R11">
+        <v>0.05</v>
+      </c>
+      <c r="S11" t="str">
+        <v>222</v>
+      </c>
+      <c r="T11">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45356</v>
       </c>
@@ -1260,8 +1542,29 @@
       <c r="K12" t="str">
         <v>222</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>45356</v>
+      </c>
+      <c r="N12">
+        <v>111</v>
+      </c>
+      <c r="O12">
+        <v>0.76597222222222228</v>
+      </c>
+      <c r="Q12">
+        <v>45355</v>
+      </c>
+      <c r="R12">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="S12" t="str">
+        <v>222</v>
+      </c>
+      <c r="T12">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45355</v>
       </c>
@@ -1280,8 +1583,29 @@
       <c r="K13" t="str">
         <v>333</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>45355</v>
+      </c>
+      <c r="N13">
+        <v>222</v>
+      </c>
+      <c r="O13">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="Q13">
+        <v>45355</v>
+      </c>
+      <c r="R13">
+        <v>0.77986111111111112</v>
+      </c>
+      <c r="S13" t="str">
+        <v>222</v>
+      </c>
+      <c r="T13">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45353</v>
       </c>
@@ -1300,8 +1624,29 @@
       <c r="K14" t="str">
         <v>111, 555</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>45355</v>
+      </c>
+      <c r="N14">
+        <v>222</v>
+      </c>
+      <c r="O14">
+        <v>0.77986111111111112</v>
+      </c>
+      <c r="Q14">
+        <v>45355</v>
+      </c>
+      <c r="R14">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="S14" t="str">
+        <v>222</v>
+      </c>
+      <c r="T14">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45356</v>
       </c>
@@ -1311,8 +1656,29 @@
       <c r="C15" s="3">
         <v>0.60972222222222228</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>45355</v>
+      </c>
+      <c r="N15">
+        <v>222</v>
+      </c>
+      <c r="O15">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="Q15">
+        <v>45356</v>
+      </c>
+      <c r="R15">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="S15" t="str">
+        <v>333</v>
+      </c>
+      <c r="T15">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45353</v>
       </c>
@@ -1322,8 +1688,29 @@
       <c r="C16" s="3">
         <v>0.18958333333333333</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>45355</v>
+      </c>
+      <c r="N16">
+        <v>222</v>
+      </c>
+      <c r="O16">
+        <v>0.05</v>
+      </c>
+      <c r="Q16">
+        <v>45356</v>
+      </c>
+      <c r="R16">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="S16" t="str">
+        <v>111</v>
+      </c>
+      <c r="T16">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45356</v>
       </c>
@@ -1333,8 +1720,29 @@
       <c r="C17" s="3">
         <v>0.63958333333333328</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>45355</v>
+      </c>
+      <c r="N17">
+        <v>222</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>45356</v>
+      </c>
+      <c r="R17">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="S17" t="str">
+        <v>333</v>
+      </c>
+      <c r="T17">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45355</v>
       </c>
@@ -1344,8 +1752,29 @@
       <c r="C18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>45356</v>
+      </c>
+      <c r="N18">
+        <v>333</v>
+      </c>
+      <c r="O18">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="Q18">
+        <v>45356</v>
+      </c>
+      <c r="R18">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="S18" t="str">
+        <v>555</v>
+      </c>
+      <c r="T18">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45356</v>
       </c>
@@ -1355,8 +1784,29 @@
       <c r="C19" s="3">
         <v>0.20972222222222223</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>45356</v>
+      </c>
+      <c r="N19">
+        <v>333</v>
+      </c>
+      <c r="O19">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="Q19">
+        <v>45356</v>
+      </c>
+      <c r="R19">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="S19" t="str">
+        <v>333</v>
+      </c>
+      <c r="T19">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45356</v>
       </c>
@@ -1366,8 +1816,29 @@
       <c r="C20" s="3">
         <v>1.9444444444444445E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>45356</v>
+      </c>
+      <c r="N20">
+        <v>333</v>
+      </c>
+      <c r="O20">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="Q20">
+        <v>45356</v>
+      </c>
+      <c r="R20">
+        <v>0.35347222222222224</v>
+      </c>
+      <c r="S20" t="str">
+        <v>111</v>
+      </c>
+      <c r="T20">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45356</v>
       </c>
@@ -1377,8 +1848,29 @@
       <c r="C21" s="2">
         <v>0.46319444444444446</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>45356</v>
+      </c>
+      <c r="N21">
+        <v>333</v>
+      </c>
+      <c r="O21">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="Q21">
+        <v>45356</v>
+      </c>
+      <c r="R21">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="S21" t="str">
+        <v>111</v>
+      </c>
+      <c r="T21">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45356</v>
       </c>
@@ -1388,8 +1880,29 @@
       <c r="C22" s="2">
         <v>0.64861111111111114</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>45353</v>
+      </c>
+      <c r="N22">
+        <v>444</v>
+      </c>
+      <c r="O22">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="Q22">
+        <v>45356</v>
+      </c>
+      <c r="R22">
+        <v>0.60972222222222228</v>
+      </c>
+      <c r="S22" t="str">
+        <v>555</v>
+      </c>
+      <c r="T22">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45356</v>
       </c>
@@ -1399,8 +1912,29 @@
       <c r="C23" s="2">
         <v>0.35347222222222224</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>45353</v>
+      </c>
+      <c r="N23">
+        <v>444</v>
+      </c>
+      <c r="O23">
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="Q23">
+        <v>45356</v>
+      </c>
+      <c r="R23">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="S23" t="str">
+        <v>333</v>
+      </c>
+      <c r="T23">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45356</v>
       </c>
@@ -1410,8 +1944,29 @@
       <c r="C24" s="2">
         <v>0.96597222222222223</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>45355</v>
+      </c>
+      <c r="N24">
+        <v>444</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>45356</v>
+      </c>
+      <c r="R24">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="S24" t="str">
+        <v>111</v>
+      </c>
+      <c r="T24">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45356</v>
       </c>
@@ -1421,8 +1976,29 @@
       <c r="C25" s="2">
         <v>3.472222222222222E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>45353</v>
+      </c>
+      <c r="N25">
+        <v>444</v>
+      </c>
+      <c r="O25">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="Q25">
+        <v>45356</v>
+      </c>
+      <c r="R25">
+        <v>0.76597222222222228</v>
+      </c>
+      <c r="S25" t="str">
+        <v>111</v>
+      </c>
+      <c r="T25">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45356</v>
       </c>
@@ -1431,6 +2007,49 @@
       </c>
       <c r="C26" s="2">
         <v>0.76597222222222228</v>
+      </c>
+      <c r="M26">
+        <v>45356</v>
+      </c>
+      <c r="N26">
+        <v>555</v>
+      </c>
+      <c r="O26">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="Q26">
+        <v>45356</v>
+      </c>
+      <c r="R26">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="S26" t="str">
+        <v>111, 555</v>
+      </c>
+      <c r="T26">
+        <v>45356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>45356</v>
+      </c>
+      <c r="N27">
+        <v>555</v>
+      </c>
+      <c r="O27">
+        <v>8.9583333333333334E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>45356</v>
+      </c>
+      <c r="N28">
+        <v>555</v>
+      </c>
+      <c r="O28">
+        <v>0.60972222222222228</v>
       </c>
     </row>
   </sheetData>
@@ -1443,7 +2062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F37A5-0EE7-458E-B4BC-B7722F86273D}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -1895,4 +2514,932 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D13AD8-E41C-4F96-8856-A1F4A1B18AE7}">
+  <dimension ref="A1:Y26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1"/>
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B2">
+        <v>222</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.6694444444444444</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45353</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="G2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B3">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.77986111111111112</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45353</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="G3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B4">
+        <v>222</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="E4" s="1">
+        <v>45355</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.93958333333333333</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45355</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="G5">
+        <v>222</v>
+      </c>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B6">
+        <v>333</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45356</v>
+      </c>
+      <c r="F6" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="G6">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B7">
+        <v>444</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.38958333333333334</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45356</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B8">
+        <v>444</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.9194444444444444</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B9">
+        <v>444</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B10">
+        <v>111</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B11">
+        <v>555</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="G11" t="str" cm="1">
+        <f t="array" ref="G11:N17">_xlfn.PIVOTBY(_d,_eid,_t,_xlfn.VSTACK(_xleta.MIN,_xleta.MAX),,0)</f>
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11">
+        <v>111</v>
+      </c>
+      <c r="J11">
+        <v>222</v>
+      </c>
+      <c r="K11">
+        <v>333</v>
+      </c>
+      <c r="L11">
+        <v>444</v>
+      </c>
+      <c r="M11">
+        <v>555</v>
+      </c>
+      <c r="N11" t="str">
+        <v>Total</v>
+      </c>
+      <c r="P11" t="str" cm="1">
+        <f t="array" ref="P11:P17">_xlfn.TAKE(_xlfn.ANCHORARRAY(G11),,-1)</f>
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B12">
+        <v>555</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="G12">
+        <v>45353</v>
+      </c>
+      <c r="H12" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="I12">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0.18958333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B13">
+        <v>222</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="G13">
+        <v>45353</v>
+      </c>
+      <c r="H13" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="I13">
+        <v>0.95</v>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <v/>
+      </c>
+      <c r="L13">
+        <v>0.9194444444444444</v>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13">
+        <v>0.95</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B14">
+        <v>111</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.27986111111111112</v>
+      </c>
+      <c r="G14">
+        <v>45355</v>
+      </c>
+      <c r="H14" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <v/>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B15">
+        <v>555</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.60972222222222228</v>
+      </c>
+      <c r="G15">
+        <v>45355</v>
+      </c>
+      <c r="H15" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="K15" t="str">
+        <v/>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.97777777777777775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45353</v>
+      </c>
+      <c r="B16">
+        <v>444</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="G16">
+        <v>45356</v>
+      </c>
+      <c r="H16" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="I16">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="L16" t="str">
+        <v/>
+      </c>
+      <c r="M16">
+        <v>8.9583333333333334E-2</v>
+      </c>
+      <c r="N16">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="P16" s="7">
+        <v>2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B17">
+        <v>333</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="G17">
+        <v>45356</v>
+      </c>
+      <c r="H17" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="I17">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="L17" t="str">
+        <v/>
+      </c>
+      <c r="M17">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="N17">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.96597222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B18">
+        <v>222</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B19">
+        <v>333</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="G19" t="str" cm="1">
+        <f t="array" ref="G19:G25">_xlfn.BYROW(
+                    _xlfn.DROP(IF(_A = _B, _xlfn.TAKE(_A, 1), ""), , -1),
+                    _xlfn.LAMBDA(_xlpm.x, _xlfn.TEXTJOIN(", ", , _xlpm.x))
+                )</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B20">
+        <v>333</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.9444444444444445E-2</v>
+      </c>
+      <c r="G20" t="str">
+        <v>444</v>
+      </c>
+      <c r="J20" t="b" cm="1">
+        <f t="array" ref="J20:Q26">_A=_B</f>
+        <v>0</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="S20" t="str" cm="1">
+        <f t="array" ref="S20:Y26">_xlfn.DROP(IF(_xlfn.ANCHORARRAY(J20),H20:H26,""),,-1)</f>
+        <v/>
+      </c>
+      <c r="T20" t="str">
+        <v/>
+      </c>
+      <c r="U20" t="str">
+        <v/>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+      <c r="W20" t="str">
+        <v/>
+      </c>
+      <c r="X20" t="str">
+        <v/>
+      </c>
+      <c r="Y20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B21">
+        <v>111</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+      <c r="G21" t="str">
+        <v>111</v>
+      </c>
+      <c r="J21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="str">
+        <v/>
+      </c>
+      <c r="T21" t="str">
+        <v/>
+      </c>
+      <c r="U21" t="str">
+        <v/>
+      </c>
+      <c r="V21" t="str">
+        <v/>
+      </c>
+      <c r="W21" t="str">
+        <v/>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B22">
+        <v>111</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.64861111111111114</v>
+      </c>
+      <c r="G22" t="str">
+        <v>222, 444</v>
+      </c>
+      <c r="H22" cm="1">
+        <f t="array" ref="H22:H26">_xlfn._xlws.SORT(_xlfn.UNIQUE(_eid))</f>
+        <v>111</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="str">
+        <v/>
+      </c>
+      <c r="T22" t="str">
+        <v/>
+      </c>
+      <c r="U22">
+        <v>111</v>
+      </c>
+      <c r="V22" t="str">
+        <v/>
+      </c>
+      <c r="W22" t="str">
+        <v/>
+      </c>
+      <c r="X22" t="str">
+        <v/>
+      </c>
+      <c r="Y22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B23">
+        <v>111</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.35347222222222224</v>
+      </c>
+      <c r="G23" t="str">
+        <v>222</v>
+      </c>
+      <c r="H23">
+        <v>222</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>1</v>
+      </c>
+      <c r="S23" t="str">
+        <v/>
+      </c>
+      <c r="T23" t="str">
+        <v/>
+      </c>
+      <c r="U23" t="str">
+        <v/>
+      </c>
+      <c r="V23">
+        <v>222</v>
+      </c>
+      <c r="W23" t="str">
+        <v/>
+      </c>
+      <c r="X23">
+        <v>222</v>
+      </c>
+      <c r="Y23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B24">
+        <v>111</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="G24" t="str">
+        <v>333</v>
+      </c>
+      <c r="H24">
+        <v>333</v>
+      </c>
+      <c r="J24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <v/>
+      </c>
+      <c r="V24">
+        <v>333</v>
+      </c>
+      <c r="W24" t="str">
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B25">
+        <v>111</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="G25" t="str">
+        <v>111, 555</v>
+      </c>
+      <c r="H25">
+        <v>444</v>
+      </c>
+      <c r="J25" t="b">
+        <v>0</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>1</v>
+      </c>
+      <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <v/>
+      </c>
+      <c r="V25" t="str">
+        <v/>
+      </c>
+      <c r="W25">
+        <v>444</v>
+      </c>
+      <c r="X25" t="str">
+        <v/>
+      </c>
+      <c r="Y25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B26">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.76597222222222228</v>
+      </c>
+      <c r="H26">
+        <v>555</v>
+      </c>
+      <c r="J26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <v/>
+      </c>
+      <c r="U26">
+        <v>555</v>
+      </c>
+      <c r="V26" t="str">
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <v/>
+      </c>
+      <c r="Y26">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
+++ b/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93ABF80-F683-4B54-AD18-CB3CF7F42472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D9C75-0057-4074-9972-BA96EF54676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BB796D0A-1929-4DDD-A038-93396BD327EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BB796D0A-1929-4DDD-A038-93396BD327EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0027365-88D3-4720-A7D1-268188D0D3D1}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -1051,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35A0C36-C234-477E-A992-B91BF6985A89}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,6 +1522,13 @@
       <c r="T11">
         <v>45355</v>
       </c>
+      <c r="V11" cm="1">
+        <f t="array" ref="V11:W13">_xlfn.XMATCH(_xlfn.UNIQUE(_xlfn.ANCHORARRAY(T4)),_xlfn.ANCHORARRAY( T4), , {1,-1})</f>
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1563,6 +1570,12 @@
       <c r="T12">
         <v>45355</v>
       </c>
+      <c r="V12">
+        <v>7</v>
+      </c>
+      <c r="W12">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1603,6 +1616,12 @@
       </c>
       <c r="T13">
         <v>45355</v>
+      </c>
+      <c r="V13">
+        <v>12</v>
+      </c>
+      <c r="W13">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -2062,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F37A5-0EE7-458E-B4BC-B7722F86273D}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2520,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D13AD8-E41C-4F96-8856-A1F4A1B18AE7}">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
+++ b/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016D9C75-0057-4074-9972-BA96EF54676D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC6A1F3-91D6-46DB-A2CE-926620E0F339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BB796D0A-1929-4DDD-A038-93396BD327EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{BB796D0A-1929-4DDD-A038-93396BD327EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -185,6 +185,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Intro_Hd" xfId="2" xr:uid="{2FF42A6A-726B-4781-867E-B4D05E1166BB}"/>
@@ -1051,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35A0C36-C234-477E-A992-B91BF6985A89}">
   <dimension ref="A1:X28"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2081,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5F37A5-0EE7-458E-B4BC-B7722F86273D}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2537,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D13AD8-E41C-4F96-8856-A1F4A1B18AE7}">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2550,6 +2552,7 @@
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
     <col min="16" max="16" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3455,6 +3458,311 @@
       <c r="Y26">
         <v>555</v>
       </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G29" s="9" cm="1">
+        <f t="array" ref="G29:I36">_xlfn.GROUPBY(_d,_t,_xlfn.VSTACK(_xleta.MIN,_xleta.MAX))</f>
+        <v>45353</v>
+      </c>
+      <c r="H29" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="I29">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" cm="1">
+        <f t="array" ref="K29:M34">_xlfn.DROP(_xlfn.ANCHORARRAY(G29),-2)</f>
+        <v>45353</v>
+      </c>
+      <c r="L29" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="M29">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="O29" cm="1">
+        <f t="array" ref="O29:P34">_xlfn.XLOOKUP(K29:K34&amp;M29:M34,_d&amp;_t,_eid,,,{-1,1})</f>
+        <v>444</v>
+      </c>
+      <c r="P29">
+        <v>444</v>
+      </c>
+      <c r="Q29" cm="1">
+        <f t="array" ref="Q29:Q34">_xlfn.BYROW(_xlfn.ANCHORARRAY(O29),_xlfn.LAMBDA(_xlpm.r,IF(_xlfn.TAKE(_xlpm.r,,1)=_xlfn.TAKE(_xlpm.r,,-1),_xlfn.TAKE(_xlpm.r,,1),_xlfn.TAKE(_xlpm.r,,-1)&amp;","&amp;_xlfn.TAKE(_xlpm.r,,1))))</f>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G30">
+        <v>45353</v>
+      </c>
+      <c r="H30" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="I30">
+        <v>0.95</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30">
+        <v>45353</v>
+      </c>
+      <c r="L30" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="M30">
+        <v>0.95</v>
+      </c>
+      <c r="O30">
+        <v>111</v>
+      </c>
+      <c r="P30">
+        <v>111</v>
+      </c>
+      <c r="Q30">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G31">
+        <v>45355</v>
+      </c>
+      <c r="H31" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31">
+        <v>45355</v>
+      </c>
+      <c r="L31" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>222</v>
+      </c>
+      <c r="P31">
+        <v>444</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>444,222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>45355</v>
+      </c>
+      <c r="H32" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="I32">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32">
+        <v>45355</v>
+      </c>
+      <c r="L32" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="M32">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="O32">
+        <v>222</v>
+      </c>
+      <c r="P32">
+        <v>222</v>
+      </c>
+      <c r="Q32">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <v>45356</v>
+      </c>
+      <c r="H33" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="I33">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="J33" s="3"/>
+      <c r="K33">
+        <v>45356</v>
+      </c>
+      <c r="L33" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="M33">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="O33">
+        <v>333</v>
+      </c>
+      <c r="P33">
+        <v>333</v>
+      </c>
+      <c r="Q33">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <v>45356</v>
+      </c>
+      <c r="H34" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="I34">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34">
+        <v>45356</v>
+      </c>
+      <c r="L34" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="M34">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="O34">
+        <v>111</v>
+      </c>
+      <c r="P34">
+        <v>555</v>
+      </c>
+      <c r="Q34" t="str">
+        <v>555,111</v>
+      </c>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G35" t="str">
+        <v>Total</v>
+      </c>
+      <c r="H35" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G36" t="str">
+        <v>Total</v>
+      </c>
+      <c r="H36" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="I36">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="M36" s="1" cm="1">
+        <f t="array" ref="M36:P41">_xlfn.HSTACK(K29:K34,L29:L34,M29:M34,_xlfn.ANCHORARRAY(Q29))</f>
+        <v>45353</v>
+      </c>
+      <c r="N36" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="P36" s="10">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="J37" s="3"/>
+      <c r="M37" s="1">
+        <v>45353</v>
+      </c>
+      <c r="N37" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="P37" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="J38" s="3"/>
+      <c r="M38" s="1">
+        <v>45355</v>
+      </c>
+      <c r="N38" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="10" t="str">
+        <v>444,222</v>
+      </c>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="J39" s="3"/>
+      <c r="M39" s="1">
+        <v>45355</v>
+      </c>
+      <c r="N39" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="P39" s="10">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="J40" s="3"/>
+      <c r="M40" s="1">
+        <v>45356</v>
+      </c>
+      <c r="N40" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="O40" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="P40" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="J41" s="3"/>
+      <c r="M41" s="1">
+        <v>45356</v>
+      </c>
+      <c r="N41" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="P41" s="10" t="str">
+        <v>555,111</v>
+      </c>
+    </row>
+    <row r="42" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="J44" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
+++ b/Excel_Challenge_582 - Pivot on Min and Max_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC6A1F3-91D6-46DB-A2CE-926620E0F339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEEC293-8AD0-4151-9F33-AE133FAEF592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{BB796D0A-1929-4DDD-A038-93396BD327EF}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,12 @@
   <si>
     <t>https://www.linkedin.com/feed/update/urn:li:activity:7260138926919602176/</t>
   </si>
+  <si>
+    <t>MIN/MAX</t>
+  </si>
+  <si>
+    <t>Single Cell Function</t>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,8 +138,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +179,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,12 +195,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -187,11 +215,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Intro_Hd" xfId="2" xr:uid="{2FF42A6A-726B-4781-867E-B4D05E1166BB}"/>
+  <cellStyles count="4">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Intro_Hd" xfId="3" xr:uid="{2FF42A6A-726B-4781-867E-B4D05E1166BB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{000FD4E3-1D12-4C0F-A499-7FD3602102C9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{000FD4E3-1D12-4C0F-A499-7FD3602102C9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2539,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98D13AD8-E41C-4F96-8856-A1F4A1B18AE7}">
-  <dimension ref="A1:Y44"/>
+  <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2552,6 +2583,7 @@
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" customWidth="1"/>
     <col min="16" max="16" width="11.88671875" customWidth="1"/>
   </cols>
@@ -3666,103 +3698,224 @@
         <v>0.97777777777777775</v>
       </c>
       <c r="J36" s="3"/>
-      <c r="M36" s="1" cm="1">
-        <f t="array" ref="M36:P41">_xlfn.HSTACK(K29:K34,L29:L34,M29:M34,_xlfn.ANCHORARRAY(Q29))</f>
-        <v>45353</v>
-      </c>
-      <c r="N36" t="str">
-        <v>MIN</v>
-      </c>
-      <c r="O36" s="3">
-        <v>0.18958333333333333</v>
-      </c>
-      <c r="P36" s="10">
-        <v>444</v>
-      </c>
     </row>
     <row r="37" spans="7:17" x14ac:dyDescent="0.3">
       <c r="J37" s="3"/>
-      <c r="M37" s="1">
-        <v>45353</v>
-      </c>
-      <c r="N37" t="str">
-        <v>MAX</v>
-      </c>
-      <c r="O37" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="P37" s="10">
-        <v>111</v>
-      </c>
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.3">
       <c r="J38" s="3"/>
-      <c r="M38" s="1">
-        <v>45355</v>
-      </c>
-      <c r="N38" t="str">
-        <v>MIN</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="10" t="str">
-        <v>444,222</v>
+      <c r="M38" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P38" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.3">
       <c r="J39" s="3"/>
-      <c r="M39" s="1">
-        <v>45355</v>
+      <c r="M39" s="1" cm="1">
+        <f t="array" ref="M39:P44">_xlfn.HSTACK(K29:K34,L29:L34,M29:M34,_xlfn.ANCHORARRAY(Q29))</f>
+        <v>45353</v>
       </c>
       <c r="N39" t="str">
-        <v>MAX</v>
+        <v>MIN</v>
       </c>
       <c r="O39" s="3">
-        <v>0.97777777777777775</v>
+        <v>0.18958333333333333</v>
       </c>
       <c r="P39" s="10">
-        <v>222</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.3">
       <c r="J40" s="3"/>
       <c r="M40" s="1">
-        <v>45356</v>
+        <v>45353</v>
       </c>
       <c r="N40" t="str">
-        <v>MIN</v>
+        <v>MAX</v>
       </c>
       <c r="O40" s="3">
-        <v>2.0833333333333333E-3</v>
+        <v>0.95</v>
       </c>
       <c r="P40" s="10">
-        <v>333</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="7:17" x14ac:dyDescent="0.3">
       <c r="J41" s="3"/>
       <c r="M41" s="1">
-        <v>45356</v>
+        <v>45355</v>
       </c>
       <c r="N41" t="str">
-        <v>MAX</v>
-      </c>
-      <c r="O41" s="2">
-        <v>0.96597222222222223</v>
+        <v>MIN</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
       </c>
       <c r="P41" s="10" t="str">
-        <v>555,111</v>
+        <v>444,222</v>
       </c>
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.3">
       <c r="J42" s="3"/>
+      <c r="M42" s="1">
+        <v>45355</v>
+      </c>
+      <c r="N42" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="P42" s="10">
+        <v>222</v>
+      </c>
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.3">
       <c r="J43" s="3"/>
+      <c r="M43" s="1">
+        <v>45356</v>
+      </c>
+      <c r="N43" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="O43" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="P43" s="10">
+        <v>333</v>
+      </c>
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.3">
       <c r="J44" s="3"/>
+      <c r="M44" s="1">
+        <v>45356</v>
+      </c>
+      <c r="N44" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="P44" s="10" t="str">
+        <v>555,111</v>
+      </c>
+    </row>
+    <row r="46" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="K46" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="L48" s="11" t="str" cm="1">
+        <f t="array" ref="L48:O54">_xlfn.LET(
+_xlpm.d,_xlfn.GROUPBY(_d,_t,_xlfn.VSTACK(_xleta.MIN,_xleta.MAX),0,0,),
+_xlpm.s,_xlfn.XLOOKUP(K29:K34&amp;M29:M34,_d&amp;_t,_eid,,,{-1,1}),
+_xlpm.ss,_xlfn.BYROW(_xlpm.s,_xlfn.LAMBDA(_xlpm.r,IF(_xlfn.TAKE(_xlpm.r,,1)=_xlfn.TAKE(_xlpm.r,,-1),_xlfn.TAKE(_xlpm.r,,1),_xlfn.TAKE(_xlpm.r,,-1)&amp;","&amp;_xlfn.TAKE(_xlpm.r,,1)))),
+_xlfn.VSTACK({"Date","Min/Max","Time","Emp ID"},_xlfn.HSTACK(_xlpm.d,_xlpm.ss)
+))</f>
+        <v>Date</v>
+      </c>
+      <c r="M48" s="11" t="str">
+        <v>Min/Max</v>
+      </c>
+      <c r="N48" s="11" t="str">
+        <v>Time</v>
+      </c>
+      <c r="O48" s="11" t="str">
+        <v>Emp ID</v>
+      </c>
+    </row>
+    <row r="49" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L49" s="1">
+        <v>45353</v>
+      </c>
+      <c r="M49" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.18958333333333333</v>
+      </c>
+      <c r="O49" s="10">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L50" s="1">
+        <v>45353</v>
+      </c>
+      <c r="M50" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="O50" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L51" s="1">
+        <v>45355</v>
+      </c>
+      <c r="M51" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="10" t="str">
+        <v>444,222</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L52" s="1">
+        <v>45355</v>
+      </c>
+      <c r="M52" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="O52" s="10">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L53" s="1">
+        <v>45356</v>
+      </c>
+      <c r="M53" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="N53" s="3">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="O53" s="10">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="54" spans="12:15" x14ac:dyDescent="0.3">
+      <c r="L54" s="1">
+        <v>45356</v>
+      </c>
+      <c r="M54" t="str">
+        <v>MAX</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0.96597222222222223</v>
+      </c>
+      <c r="O54" s="10" t="str">
+        <v>555,111</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
